--- a/ตัวอย่างExcel import/Thirdparty.xlsx
+++ b/ตัวอย่างExcel import/Thirdparty.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\AppServ\www\testFlask\testFlask\ตัวอย่างExcel import\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TrueAcademy\QaWeb\ตัวอย่างExcel import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5758DE72-6D2F-4DE6-84AC-D83D0E588CE1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53BFC2F7-7D8E-459C-BF09-A81C7DCF4A84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{46384C58-FDA1-413D-9A2D-E20E48A9A33D}"/>
   </bookViews>
@@ -31,10 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Pattern Code</t>
   </si>
@@ -60,19 +57,25 @@
     <t>test Env</t>
   </si>
   <si>
-    <t>Current User</t>
-  </si>
-  <si>
-    <t>Period</t>
-  </si>
-  <si>
     <t>remark</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>Enable</t>
+    <t>lllll</t>
+  </si>
+  <si>
+    <t>hhhh</t>
+  </si>
+  <si>
+    <t>jjjjj</t>
+  </si>
+  <si>
+    <t>kjjj</t>
+  </si>
+  <si>
+    <t>A100</t>
+  </si>
+  <si>
+    <t>uiuu</t>
   </si>
 </sst>
 </file>
@@ -115,9 +118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
@@ -435,12 +439,17 @@
   <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.796875" style="2"/>
+    <col min="9" max="10" width="8.796875" style="2"/>
+    <col min="13" max="13" width="8.796875" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,22 +477,28 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="D2">
+        <v>1111</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="M2" t="s">
-        <v>13</v>
+      <c r="G2" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
